--- a/HW3_Excel1/HW3_113208048.xlsx
+++ b/HW3_Excel1/HW3_113208048.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85eea0eee0c91865/桌面/1141_IntroToCS_113208048/HW3_Excel1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{187FFB5F-85ED-4740-94A4-B4B7F674A92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{8A83FBC5-63C8-44BC-8E14-A99A8DE575F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
@@ -319,7 +319,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -327,16 +327,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -429,7 +419,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -744,7 +734,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -770,6 +760,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EF82-4E20-9741-289EB708DDEE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -785,17 +780,29 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EF82-4E20-9741-289EB708DDEE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -803,9 +810,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -816,30 +823,26 @@
                 <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="bestFit"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -884,7 +887,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -2449,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2523,7 +2526,7 @@
         <v>95</v>
       </c>
       <c r="H2" s="1">
-        <f>AVERAGE(C2:G2)</f>
+        <f t="shared" ref="H2:H15" si="0">AVERAGE(C2:G2)</f>
         <v>94.4</v>
       </c>
       <c r="I2" s="1">
@@ -2565,22 +2568,22 @@
         <v>88</v>
       </c>
       <c r="H3" s="1">
-        <f>AVERAGE(C3:G3)</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="I3" s="1">
         <v>94</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J15" si="0">H3*0.5+I3*0.5</f>
+        <f t="shared" ref="J3:J15" si="1">H3*0.5+I3*0.5</f>
         <v>91</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K15" si="1">_xlfn.IFS(J3&gt;=90,"A",J3&gt;=80,"B",J3&gt;=70,"C",J3&gt;=60,"D",J3&lt;60,"F")</f>
+        <f t="shared" ref="K3:K15" si="2">_xlfn.IFS(J3&gt;=90,"A",J3&gt;=80,"B",J3&gt;=70,"C",J3&gt;=60,"D",J3&lt;60,"F")</f>
         <v>A</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L15" si="2">IF(J3&gt;=60,"pass","fail")</f>
+        <f t="shared" ref="L3:L15" si="3">IF(J3&gt;=60,"pass","fail")</f>
         <v>pass</v>
       </c>
     </row>
@@ -2607,22 +2610,22 @@
         <v>85</v>
       </c>
       <c r="H4" s="1">
-        <f>AVERAGE(C4:G4)</f>
+        <f t="shared" si="0"/>
         <v>82.4</v>
       </c>
       <c r="I4" s="1">
         <v>80</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81.2</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>B</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>pass</v>
       </c>
     </row>
@@ -2649,22 +2652,22 @@
         <v>95</v>
       </c>
       <c r="H5" s="1">
-        <f>AVERAGE(C5:G5)</f>
+        <f t="shared" si="0"/>
         <v>81.599999999999994</v>
       </c>
       <c r="I5" s="1">
         <v>80</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80.8</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>B</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>pass</v>
       </c>
     </row>
@@ -2691,22 +2694,22 @@
         <v>73</v>
       </c>
       <c r="H6" s="1">
-        <f>AVERAGE(C6:G6)</f>
+        <f t="shared" si="0"/>
         <v>81.400000000000006</v>
       </c>
       <c r="I6" s="1">
         <v>88</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84.7</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>B</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>pass</v>
       </c>
     </row>
@@ -2733,22 +2736,22 @@
         <v>80</v>
       </c>
       <c r="H7" s="1">
-        <f>AVERAGE(C7:G7)</f>
+        <f t="shared" si="0"/>
         <v>80.599999999999994</v>
       </c>
       <c r="I7" s="1">
         <v>81</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80.8</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>B</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>pass</v>
       </c>
     </row>
@@ -2775,22 +2778,22 @@
         <v>89</v>
       </c>
       <c r="H8" s="1">
-        <f>AVERAGE(C8:G8)</f>
+        <f t="shared" si="0"/>
         <v>78.8</v>
       </c>
       <c r="I8" s="1">
         <v>77</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77.900000000000006</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>pass</v>
       </c>
     </row>
@@ -2817,22 +2820,22 @@
         <v>47</v>
       </c>
       <c r="H9" s="1">
-        <f>AVERAGE(C9:G9)</f>
+        <f t="shared" si="0"/>
         <v>75.400000000000006</v>
       </c>
       <c r="I9" s="1">
         <v>73</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74.2</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>pass</v>
       </c>
     </row>
@@ -2859,22 +2862,22 @@
         <v>97</v>
       </c>
       <c r="H10" s="1">
-        <f>AVERAGE(C10:G10)</f>
+        <f t="shared" si="0"/>
         <v>73.400000000000006</v>
       </c>
       <c r="I10" s="1">
         <v>77</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75.2</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>pass</v>
       </c>
     </row>
@@ -2901,22 +2904,22 @@
         <v>67</v>
       </c>
       <c r="H11" s="1">
-        <f>AVERAGE(C11:G11)</f>
+        <f t="shared" si="0"/>
         <v>73.2</v>
       </c>
       <c r="I11" s="1">
         <v>82</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77.599999999999994</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>pass</v>
       </c>
     </row>
@@ -2943,22 +2946,22 @@
         <v>82</v>
       </c>
       <c r="H12" s="1">
-        <f>AVERAGE(C12:G12)</f>
+        <f t="shared" si="0"/>
         <v>73.2</v>
       </c>
       <c r="I12" s="1">
         <v>88</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80.599999999999994</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>B</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>pass</v>
       </c>
       <c r="M12">
@@ -2989,22 +2992,22 @@
         <v>92</v>
       </c>
       <c r="H13" s="1">
-        <f>AVERAGE(C13:G13)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="I13" s="1">
         <v>52</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
       <c r="M13">
@@ -3035,22 +3038,22 @@
         <v>79</v>
       </c>
       <c r="H14" s="1">
-        <f>AVERAGE(C14:G14)</f>
+        <f t="shared" si="0"/>
         <v>64.8</v>
       </c>
       <c r="I14" s="1">
         <v>69</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66.900000000000006</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>D</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>pass</v>
       </c>
     </row>
@@ -3077,22 +3080,22 @@
         <v>34</v>
       </c>
       <c r="H15" s="1">
-        <f>AVERAGE(C15:G15)</f>
+        <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
       <c r="I15" s="1">
         <v>54</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55.6</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
     </row>
